--- a/Design/적 캐릭터 기획서.xlsx
+++ b/Design/적 캐릭터 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E1E427-C286-4304-A501-B9F017E3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A12E8-4A97-4C56-AB58-4B37512C0C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="적 캐릭터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.08.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,10 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)첫 웨이브는 특성을 지닌 몬스터가 존재하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서브보스는 가장 처음 출현하는 서브보스를 제외하고 반드시 하나의 특수 특성을 지닌다. 또한 일반 몬스터보다 크기가 20% 크다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,14 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6~20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21~40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>41~45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -902,50 +886,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)두번째 웨이브는 특성1을 지닌 몬스터가 1마리 존재한다. 또한 5번째 웨이브까지 특성1을 지닌 일반 몬스터가 1마리씩 증가한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)21웨이브에 강화된(특성2)을 지닌 몬스터가 1마리 등장, 40웨이브까지 웨이브 당 3마리씩 증가한다. 특성1을 지닌 몬스터는 5마리씩 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5)41웨이브부터 45까지 강화된(특성2)를 지닌 몬스터가 웨이브당 6마리씩 증가, 특성1을 지닌 몬스터는 10마리씩 증가한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6)46웨이브부터 모든 일반 몬스터는 특성1과 강화된(특성2)를 지니고 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(wave-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웨이브당 2마리 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)이후 20웨이브까지 특성1을 지닌 몬스터가 2마리씩 증가한다. 또한 서브보스, 보스가 특성 2를 지니기 시작한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 3마리 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 10마리 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 웨이브의 개체 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특성2 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,14 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이브당 1 증가 + {0, 1(웨이브가 3배수 또는 5배수) ,2(웨이브가 15배수)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 6 증가 + {0, 1(웨이브가 3배수 또는 5배수) ,2(웨이브가 15배수)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.웨이브에 따른 속성부여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,10 +998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이브에 따른 속성부여규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.특수 상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,6 +1011,110 @@
   </si>
   <si>
     <t>방어구 특화 타워 - 해당 타워의 공격에 한하여, 방어구가 남은 몬스터의 최종 피해량은 피해량 x1.2 ×{0.01×(100-방어력)}의 공식을 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*일반 몬스터는 특성2로 '강화된'만을 지닐 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무속성 체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기속성 체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙속성 체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물속성 체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불속성 체력바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)첫 웨이브부터 5번째 웨이브까지는 특성을 지닌 몬스터가 존재하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 웨이브당 1마리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)6웨이브는 특성1을 지닌 몬스터가 1마리 존재한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)이후 30웨이브까지 특성1을 지닌 일반 몬스터가 2웨이브 당 1마리씩 증가한다. 또한 서브보스, 보스가 특성 2를 지니기 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 1마리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)31웨이브에 강화된(특성2)을 지닌 몬스터가 1마리 등장, 40웨이브까지 두 웨이브 당 1마리씩 증가한다. 특성1을 지닌 몬스터는 1마리씩 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 웨이브당 1 증가 + {0, 1(웨이브가 3배수 또는 5배수) ,2(웨이브가 15배수)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 2 증가 + {0, 1(웨이브가 3배수 또는 5배수) ,2(웨이브가 15배수)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)41웨이브부터 45까지 강화된(특성2)를 지닌 몬스터가 웨이브당 2마리씩 증가, 특성1을 지닌 몬스터는 2마리씩 증가한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)46웨이브부터 특성1을 지닌 몬스터가 4마리씩 증가,  강화된(특성2)을 지닌 몬스터가 4마리씩 증가한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 4마리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 4마리 증가 +{0, 1(웨이브가 3배수 또는 5배수) ,2(웨이브가 15배수)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proper1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proper1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*몬스터 종류에 따라 적용가능한 특성1이 2개씩 존재하며, 두 특성의 적용확률은 동일하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,12 +1345,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,24 +1352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1360,6 +1372,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1378,6 +1417,311 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357808</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212203CC-D57D-1E9F-6829-33C8DE3177DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="655983"/>
+          <a:ext cx="3034747" cy="3034748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>669234</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404191</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>212981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2F840E-BBF7-85C1-62A0-97500575689F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4015408" y="1093304"/>
+          <a:ext cx="1742661" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>271669</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073A327F-8F61-EB6D-70CF-45DB3AF89C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950226" y="1119809"/>
+          <a:ext cx="1683026" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205408</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09FD454-3045-9D5B-708D-96EA6DE602CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="1106556"/>
+          <a:ext cx="1649895" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589722</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07A3548-1184-88A9-8605-B71E8D28A717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="3061252"/>
+          <a:ext cx="1749287" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569844</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251792</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B589EA50-7B34-9BDA-C0BA-C077124DFFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7931427" y="3061252"/>
+          <a:ext cx="1689652" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2179,112 +2523,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.2</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+        <v>1.4</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+        <v>245</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -2339,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2371,7 +2715,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -2382,10 +2726,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -2404,14 +2748,14 @@
       <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="6" t="s">
         <v>24</v>
       </c>
@@ -2421,22 +2765,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -2444,22 +2788,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -2467,22 +2811,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -2490,22 +2834,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -2520,7 +2864,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
@@ -2530,34 +2874,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2567,28 +2911,28 @@
       <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
@@ -2596,26 +2940,26 @@
       <c r="F24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -2623,26 +2967,26 @@
       <c r="F25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -2650,26 +2994,26 @@
       <c r="F26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="6">
         <v>3</v>
@@ -2677,22 +3021,22 @@
       <c r="F27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F28" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
@@ -2702,12 +3046,12 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.4">
@@ -2716,282 +3060,282 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A40" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="29">
-        <v>1</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+        <v>140</v>
+      </c>
+      <c r="D41" s="21">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="29">
-        <v>2</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+        <v>141</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="29">
-        <v>3</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+        <v>142</v>
+      </c>
+      <c r="D43" s="21">
+        <v>4</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="29">
-        <v>4</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="D44" s="21">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="29">
-        <v>5</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+        <v>144</v>
+      </c>
+      <c r="D45" s="21">
+        <v>6</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="29">
-        <v>6</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+        <v>145</v>
+      </c>
+      <c r="D46" s="21">
+        <v>7</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="29">
-        <v>7</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="21">
+        <v>8</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G48" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.4">
@@ -3000,439 +3344,439 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>149</v>
+      <c r="A51" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="28"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="20"/>
       <c r="G52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="26"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="29">
-        <v>0</v>
-      </c>
-      <c r="F53" s="28"/>
+      <c r="A53" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20"/>
       <c r="G53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="26"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="29">
-        <v>1</v>
-      </c>
-      <c r="F54" s="28"/>
+        <v>151</v>
+      </c>
+      <c r="D54" s="21">
+        <v>2</v>
+      </c>
+      <c r="F54" s="20"/>
       <c r="G54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="26"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="29">
-        <v>2</v>
-      </c>
-      <c r="F55" s="28"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="21">
+        <v>3</v>
+      </c>
+      <c r="F55" s="20"/>
       <c r="G55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="26"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="31"/>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="31"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="29">
-        <v>3</v>
-      </c>
-      <c r="F56" s="28"/>
+        <v>153</v>
+      </c>
+      <c r="D56" s="21">
+        <v>4</v>
+      </c>
+      <c r="F56" s="20"/>
       <c r="G56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="26"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="29">
-        <v>4</v>
-      </c>
-      <c r="F57" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="D57" s="21">
+        <v>5</v>
+      </c>
+      <c r="F57" s="20"/>
       <c r="G57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="26"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="23"/>
+      <c r="AE57" s="23"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="29">
-        <v>5</v>
-      </c>
-      <c r="F58" s="28"/>
+        <v>155</v>
+      </c>
+      <c r="D58" s="21">
+        <v>6</v>
+      </c>
+      <c r="F58" s="20"/>
       <c r="G58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="26"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="31"/>
-      <c r="AD58" s="31"/>
-      <c r="AE58" s="31"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="30"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+      <c r="AE58" s="23"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="17"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="29">
-        <v>6</v>
-      </c>
-      <c r="F59" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="D59" s="21">
+        <v>7</v>
+      </c>
+      <c r="F59" s="20"/>
       <c r="G59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="26"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-      <c r="AD59" s="31"/>
-      <c r="AE59" s="31"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="30"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="23"/>
+      <c r="AE59" s="23"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="17"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="29">
-        <v>7</v>
-      </c>
-      <c r="F60" s="28"/>
+        <v>157</v>
+      </c>
+      <c r="D60" s="21">
+        <v>8</v>
+      </c>
+      <c r="F60" s="20"/>
       <c r="G60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="26"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="31"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="23"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="29">
-        <v>8</v>
-      </c>
-      <c r="F61" s="28"/>
+        <v>158</v>
+      </c>
+      <c r="D61" s="21">
+        <v>9</v>
+      </c>
+      <c r="F61" s="20"/>
       <c r="G61" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="26"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
-      <c r="AD61" s="31"/>
-      <c r="AE61" s="31"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="23"/>
+      <c r="AE61" s="23"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="29">
+        <v>159</v>
+      </c>
+      <c r="D62" s="21">
         <v>9</v>
       </c>
       <c r="G62" s="13" t="s">
@@ -3456,17 +3800,17 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G66" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G67" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G68" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3495,12 +3839,12 @@
       <c r="D72" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="6">
@@ -3512,12 +3856,12 @@
       <c r="D73" s="6">
         <v>1</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="6">
@@ -3529,12 +3873,12 @@
       <c r="D74" s="6">
         <v>2</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="6">
@@ -3546,12 +3890,12 @@
       <c r="D75" s="6">
         <v>3</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="6">
@@ -3563,12 +3907,12 @@
       <c r="D76" s="6">
         <v>4</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="6">
@@ -3580,12 +3924,12 @@
       <c r="D77" s="6">
         <v>5</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
@@ -3594,142 +3938,142 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D88" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" s="6">
         <v>0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" s="6">
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="6">
         <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D92" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D93" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
@@ -3737,72 +4081,74 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B100" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" s="17"/>
+      <c r="B100" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="27"/>
       <c r="D100" s="6" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B101" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C101" s="17"/>
+      <c r="B101" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="27"/>
       <c r="D101" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B102" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" s="17"/>
+      <c r="B102" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="27"/>
       <c r="D102" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B103" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="17"/>
+      <c r="B103" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="27"/>
       <c r="D103" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
@@ -3812,34 +4158,33 @@
     <mergeCell ref="H59:R59"/>
     <mergeCell ref="H60:R60"/>
     <mergeCell ref="H61:R61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="H40:L40"/>
     <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="G23:O23"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A61:B61"/>
@@ -3848,26 +4193,25 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="E91:Q91"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="E89:Q89"/>
+    <mergeCell ref="E77:H77"/>
     <mergeCell ref="H52:R52"/>
     <mergeCell ref="H53:R53"/>
     <mergeCell ref="H54:R54"/>
     <mergeCell ref="H55:R55"/>
     <mergeCell ref="H56:R56"/>
+    <mergeCell ref="E76:H76"/>
     <mergeCell ref="E90:Q90"/>
-    <mergeCell ref="E91:Q91"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="E89:Q89"/>
-    <mergeCell ref="E77:H77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3877,43 +4221,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA207C7-F3EB-4DC6-9236-0C38985E2373}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>117</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3929,87 +4293,87 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4021,47 +4385,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
         <v>180</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>181</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>184</v>
       </c>
-      <c r="G2" t="s">
-        <v>185</v>
-      </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+      <c r="L2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -4092,69 +4462,75 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4165,407 +4541,441 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="27">
         <v>6</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+        <v>193</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+        <v>195</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="6">
+      <c r="B24" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="6">
+        <v>6</v>
+      </c>
+      <c r="C25" s="27">
         <v>1</v>
       </c>
-      <c r="C24" s="17">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
         <v>0</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+        <v>249</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+        <v>204</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+        <v>205</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="B31" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>229</v>
+      <c r="A34" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>251</v>
+      <c r="A36" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B37" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B39" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
-        <v>248</v>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="F25:L25"/>
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="F29:L29"/>
-    <mergeCell ref="C38:M38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C42:M42"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C29:E29"/>
@@ -4573,6 +4983,15 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4592,12 +5011,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4623,52 +5042,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
